--- a/data/pca/factorExposure/factorExposure_2019-04-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1314898654523797</v>
+        <v>-0.07765692521807854</v>
       </c>
       <c r="C2">
-        <v>0.01220572447756646</v>
+        <v>0.04025926279580549</v>
       </c>
       <c r="D2">
-        <v>0.04155026633479951</v>
+        <v>0.005054923160619152</v>
       </c>
       <c r="E2">
-        <v>0.1043471012399167</v>
+        <v>0.03911608933017632</v>
       </c>
       <c r="F2">
-        <v>0.1024568855061517</v>
+        <v>0.1424399996151506</v>
       </c>
       <c r="G2">
-        <v>-0.02415908260098478</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1114129701836048</v>
+      </c>
+      <c r="H2">
+        <v>-0.05280051878320387</v>
+      </c>
+      <c r="I2">
+        <v>0.007927439450318045</v>
+      </c>
+      <c r="J2">
+        <v>0.07734900504260915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.227487906590394</v>
+        <v>-0.1687154228555536</v>
       </c>
       <c r="C3">
-        <v>-0.09824954095986738</v>
+        <v>0.08482110370702921</v>
       </c>
       <c r="D3">
-        <v>-0.04519893416295861</v>
+        <v>-0.05119786606158927</v>
       </c>
       <c r="E3">
-        <v>0.3149043431427593</v>
+        <v>-0.02217636413316304</v>
       </c>
       <c r="F3">
-        <v>0.01044902097757676</v>
+        <v>0.3710205332186398</v>
       </c>
       <c r="G3">
-        <v>-0.1302069416495325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.09789779755993709</v>
+      </c>
+      <c r="H3">
+        <v>-0.2798008842629345</v>
+      </c>
+      <c r="I3">
+        <v>0.1204118130358228</v>
+      </c>
+      <c r="J3">
+        <v>0.3071033591706996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.101367214650875</v>
+        <v>-0.07490813707182785</v>
       </c>
       <c r="C4">
-        <v>-0.02869464624638118</v>
+        <v>0.03191092996862582</v>
       </c>
       <c r="D4">
-        <v>0.02404509916379379</v>
+        <v>-0.03394758995881351</v>
       </c>
       <c r="E4">
-        <v>0.07533530180672653</v>
+        <v>0.03218568573104326</v>
       </c>
       <c r="F4">
-        <v>0.03558996585911339</v>
+        <v>0.08291210268405412</v>
       </c>
       <c r="G4">
-        <v>-0.04115488965844286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04540632956678919</v>
+      </c>
+      <c r="H4">
+        <v>-0.02282147679064802</v>
+      </c>
+      <c r="I4">
+        <v>0.01768095125259085</v>
+      </c>
+      <c r="J4">
+        <v>0.06763790165528785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01792487066167228</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.003481710885433823</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.008432207050869911</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.00256674578059943</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.001070019155829639</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02005034860357639</v>
+      </c>
+      <c r="H6">
+        <v>-0.001660141987154833</v>
+      </c>
+      <c r="I6">
+        <v>-0.009542132887607028</v>
+      </c>
+      <c r="J6">
+        <v>0.001060291287121458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.0433050272552277</v>
+        <v>-0.0354192308370227</v>
       </c>
       <c r="C7">
-        <v>-0.005363418179461926</v>
+        <v>-0.0007002613527434785</v>
       </c>
       <c r="D7">
-        <v>0.032463416477602</v>
+        <v>-0.04099531859010701</v>
       </c>
       <c r="E7">
-        <v>0.07366016396050999</v>
+        <v>0.02654684955958137</v>
       </c>
       <c r="F7">
-        <v>-0.0516371550601863</v>
+        <v>0.05624813357282527</v>
       </c>
       <c r="G7">
-        <v>-0.0006623420161279053</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.004490167914500721</v>
+      </c>
+      <c r="H7">
+        <v>-0.04544375278968228</v>
+      </c>
+      <c r="I7">
+        <v>-0.01969899817611157</v>
+      </c>
+      <c r="J7">
+        <v>0.04662740247961097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.04342004031962021</v>
+        <v>-0.0313337032980796</v>
       </c>
       <c r="C8">
-        <v>-0.04177128799505237</v>
+        <v>0.03419687871842062</v>
       </c>
       <c r="D8">
-        <v>0.002879872928099271</v>
+        <v>-0.03388987440311458</v>
       </c>
       <c r="E8">
-        <v>0.07133318627778804</v>
+        <v>0.01159059249694241</v>
       </c>
       <c r="F8">
-        <v>0.005136889755897243</v>
+        <v>0.07443724855692875</v>
       </c>
       <c r="G8">
-        <v>-0.02321286434311654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02219930696989485</v>
+      </c>
+      <c r="H8">
+        <v>-0.04571398844117042</v>
+      </c>
+      <c r="I8">
+        <v>0.01328694301279639</v>
+      </c>
+      <c r="J8">
+        <v>0.07165238359169721</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08857051355745743</v>
+        <v>-0.06225520244643998</v>
       </c>
       <c r="C9">
-        <v>-0.03133144258209746</v>
+        <v>0.03018606070061781</v>
       </c>
       <c r="D9">
-        <v>0.03250847036438867</v>
+        <v>-0.03867156846192452</v>
       </c>
       <c r="E9">
-        <v>0.06132783248640039</v>
+        <v>0.03120925389197493</v>
       </c>
       <c r="F9">
-        <v>0.02407409697154708</v>
+        <v>0.08335512689926396</v>
       </c>
       <c r="G9">
-        <v>-0.05721394383870194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04200167422790005</v>
+      </c>
+      <c r="H9">
+        <v>-0.01884589584590937</v>
+      </c>
+      <c r="I9">
+        <v>-0.0006175445547193095</v>
+      </c>
+      <c r="J9">
+        <v>0.0383518404445517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.005815399656121708</v>
+        <v>-0.02106049009655622</v>
       </c>
       <c r="C10">
-        <v>0.1587940046173429</v>
+        <v>-0.1301983558942685</v>
       </c>
       <c r="D10">
-        <v>-0.0164141072427489</v>
+        <v>0.08802678030953892</v>
       </c>
       <c r="E10">
-        <v>0.06726978332552278</v>
+        <v>-0.02178353306853694</v>
       </c>
       <c r="F10">
-        <v>0.01713029670748738</v>
+        <v>0.07093686273926515</v>
       </c>
       <c r="G10">
-        <v>0.0209079371706462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.0244322300437481</v>
+      </c>
+      <c r="H10">
+        <v>0.004714605279226968</v>
+      </c>
+      <c r="I10">
+        <v>0.1110735693345128</v>
+      </c>
+      <c r="J10">
+        <v>0.03400776679387774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05837290983145975</v>
+        <v>-0.0482147997814972</v>
       </c>
       <c r="C11">
-        <v>-0.005985128515963033</v>
+        <v>0.02625056195709123</v>
       </c>
       <c r="D11">
-        <v>-0.009708536461444669</v>
+        <v>-0.006398582787861637</v>
       </c>
       <c r="E11">
-        <v>0.03975036284577121</v>
+        <v>0.005081533199271655</v>
       </c>
       <c r="F11">
-        <v>0.00777007350943994</v>
+        <v>0.03950456593284155</v>
       </c>
       <c r="G11">
-        <v>0.02249239651532699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.008578224516445373</v>
+      </c>
+      <c r="H11">
+        <v>-0.001823834448098136</v>
+      </c>
+      <c r="I11">
+        <v>-0.02541470921231057</v>
+      </c>
+      <c r="J11">
+        <v>0.03730657237287682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04574190742197849</v>
+        <v>-0.04609415325179402</v>
       </c>
       <c r="C12">
-        <v>-0.01281379302938041</v>
+        <v>0.01950509240922011</v>
       </c>
       <c r="D12">
-        <v>-0.005076947116495888</v>
+        <v>-0.01511348316334269</v>
       </c>
       <c r="E12">
-        <v>0.0284938304194373</v>
+        <v>0.008334138124905221</v>
       </c>
       <c r="F12">
-        <v>-0.001005493846268226</v>
+        <v>0.01784423621360341</v>
       </c>
       <c r="G12">
-        <v>0.0004626764495055551</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>4.435142378133275e-05</v>
+      </c>
+      <c r="H12">
+        <v>-0.003045945609409799</v>
+      </c>
+      <c r="I12">
+        <v>-0.02160923140578893</v>
+      </c>
+      <c r="J12">
+        <v>0.02004237422233406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.06440283450336455</v>
+        <v>-0.04246408095472266</v>
       </c>
       <c r="C13">
-        <v>-0.01610831848329056</v>
+        <v>0.0307612248166977</v>
       </c>
       <c r="D13">
-        <v>-0.01346562141834284</v>
+        <v>0.000634654375747536</v>
       </c>
       <c r="E13">
-        <v>0.1063904164757569</v>
+        <v>0.004684955824344469</v>
       </c>
       <c r="F13">
-        <v>0.01619339626653216</v>
+        <v>0.104244218507501</v>
       </c>
       <c r="G13">
-        <v>0.0003358801799935933</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.02385421191440841</v>
+      </c>
+      <c r="H13">
+        <v>-0.04578665283424906</v>
+      </c>
+      <c r="I13">
+        <v>-0.009340719811481015</v>
+      </c>
+      <c r="J13">
+        <v>0.06246030568704732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.038004274141102</v>
+        <v>-0.02977893462853838</v>
       </c>
       <c r="C14">
-        <v>-0.007822165878782214</v>
+        <v>0.01251678829341731</v>
       </c>
       <c r="D14">
-        <v>0.02078013985361839</v>
+        <v>-0.01366816439352531</v>
       </c>
       <c r="E14">
-        <v>0.01844655620259928</v>
+        <v>0.02374251176093754</v>
       </c>
       <c r="F14">
-        <v>0.001842967861996639</v>
+        <v>0.0372440562397884</v>
       </c>
       <c r="G14">
-        <v>0.02090337282371079</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03137151638031464</v>
+      </c>
+      <c r="H14">
+        <v>-0.04861654086674753</v>
+      </c>
+      <c r="I14">
+        <v>0.005240904978004035</v>
+      </c>
+      <c r="J14">
+        <v>0.02166803212774693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.04897771575139619</v>
+        <v>-0.04311278988562116</v>
       </c>
       <c r="C16">
-        <v>-0.02161047119478212</v>
+        <v>0.030814758183739</v>
       </c>
       <c r="D16">
-        <v>-0.01333013798091916</v>
+        <v>-0.01604675009318018</v>
       </c>
       <c r="E16">
-        <v>0.03438968726546364</v>
+        <v>0.002310425680120719</v>
       </c>
       <c r="F16">
-        <v>-0.004545483105051377</v>
+        <v>0.03315456440519958</v>
       </c>
       <c r="G16">
-        <v>0.007133721079302872</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.004054717855310677</v>
+      </c>
+      <c r="H16">
+        <v>-0.01049099747477324</v>
+      </c>
+      <c r="I16">
+        <v>-0.02128051173675443</v>
+      </c>
+      <c r="J16">
+        <v>0.03050830799510353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.05268785089483313</v>
+        <v>-0.04682862283263346</v>
       </c>
       <c r="C19">
-        <v>-0.02908160475332136</v>
+        <v>0.03670848273969428</v>
       </c>
       <c r="D19">
-        <v>-0.006138911974793576</v>
+        <v>-0.01894525629959175</v>
       </c>
       <c r="E19">
-        <v>0.0708572184404294</v>
+        <v>0.01261379530646719</v>
       </c>
       <c r="F19">
-        <v>-0.01591332250268697</v>
+        <v>0.08290631076545853</v>
       </c>
       <c r="G19">
-        <v>0.02471426973573163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.01497943776925342</v>
+      </c>
+      <c r="H19">
+        <v>-0.08322418135551492</v>
+      </c>
+      <c r="I19">
+        <v>0.01912177031022113</v>
+      </c>
+      <c r="J19">
+        <v>0.05490865573590284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03906582537403114</v>
+        <v>-0.0200629855392556</v>
       </c>
       <c r="C20">
-        <v>-0.0354773453614962</v>
+        <v>0.02383539304853549</v>
       </c>
       <c r="D20">
-        <v>0.01172748761768872</v>
+        <v>-0.02142540362949424</v>
       </c>
       <c r="E20">
-        <v>0.06202164898586824</v>
+        <v>0.01667045223037731</v>
       </c>
       <c r="F20">
-        <v>-0.01436652972143759</v>
+        <v>0.06808731337323516</v>
       </c>
       <c r="G20">
-        <v>0.0065878532399845</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01789299730800036</v>
+      </c>
+      <c r="H20">
+        <v>-0.06895194770804927</v>
+      </c>
+      <c r="I20">
+        <v>-0.003998663103028496</v>
+      </c>
+      <c r="J20">
+        <v>0.08508928284668614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.04093338745366722</v>
+        <v>-0.02388247385577676</v>
       </c>
       <c r="C21">
-        <v>-0.01798485370389706</v>
+        <v>0.01882279730831358</v>
       </c>
       <c r="D21">
-        <v>-0.001458863368112338</v>
+        <v>-0.02841145823990017</v>
       </c>
       <c r="E21">
-        <v>0.09245536450660768</v>
+        <v>0.001281065500770897</v>
       </c>
       <c r="F21">
-        <v>0.04768125274976062</v>
+        <v>0.07689444159723026</v>
       </c>
       <c r="G21">
-        <v>0.002974434794888896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03559678236611385</v>
+      </c>
+      <c r="H21">
+        <v>-0.02427359132475954</v>
+      </c>
+      <c r="I21">
+        <v>-0.01746873467228104</v>
+      </c>
+      <c r="J21">
+        <v>0.03007703257049825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.05075627008618539</v>
+        <v>-0.04237156942555231</v>
       </c>
       <c r="C24">
-        <v>-0.01467381390684662</v>
+        <v>0.02152323982074283</v>
       </c>
       <c r="D24">
-        <v>-0.003983644913765884</v>
+        <v>-0.01038205905161743</v>
       </c>
       <c r="E24">
-        <v>0.04237114051190674</v>
+        <v>0.007050247575337794</v>
       </c>
       <c r="F24">
-        <v>-0.002599884731916147</v>
+        <v>0.0397617045021542</v>
       </c>
       <c r="G24">
-        <v>0.003296969655207854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.003930997212869995</v>
+      </c>
+      <c r="H24">
+        <v>-0.007654615405986513</v>
+      </c>
+      <c r="I24">
+        <v>-0.02242641557030124</v>
+      </c>
+      <c r="J24">
+        <v>0.0375287546522747</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.0504817286523182</v>
+        <v>-0.04455891166477368</v>
       </c>
       <c r="C25">
-        <v>-0.005307802167064506</v>
+        <v>0.02151058434823044</v>
       </c>
       <c r="D25">
-        <v>-0.006651176555777748</v>
+        <v>-0.009413289510354611</v>
       </c>
       <c r="E25">
-        <v>0.04162303503017669</v>
+        <v>0.004954196511215691</v>
       </c>
       <c r="F25">
-        <v>0.007696654164875334</v>
+        <v>0.04367715013250419</v>
       </c>
       <c r="G25">
-        <v>0.01075891288410304</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.003158495756694377</v>
+      </c>
+      <c r="H25">
+        <v>-0.00225562831406333</v>
+      </c>
+      <c r="I25">
+        <v>-0.02118529269625294</v>
+      </c>
+      <c r="J25">
+        <v>0.02866804662550661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.01392859911475867</v>
+        <v>-0.01651530081190301</v>
       </c>
       <c r="C26">
-        <v>-0.02497934124922957</v>
+        <v>0.0231156548391677</v>
       </c>
       <c r="D26">
-        <v>0.002066462590180241</v>
+        <v>-0.008723026385124283</v>
       </c>
       <c r="E26">
-        <v>0.03530504804556786</v>
+        <v>-0.0005625023271566244</v>
       </c>
       <c r="F26">
-        <v>0.014120356552572</v>
+        <v>0.0439086113589304</v>
       </c>
       <c r="G26">
-        <v>0.02135971719621535</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02111442923585948</v>
+      </c>
+      <c r="H26">
+        <v>-0.02955360494263292</v>
+      </c>
+      <c r="I26">
+        <v>-0.01510395018094456</v>
+      </c>
+      <c r="J26">
+        <v>0.03564059736461486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1127207089212703</v>
+        <v>-0.08001918622316315</v>
       </c>
       <c r="C27">
-        <v>-0.02056747358577064</v>
+        <v>0.02715216682401366</v>
       </c>
       <c r="D27">
-        <v>0.02204887579351004</v>
+        <v>-0.01813292995589918</v>
       </c>
       <c r="E27">
-        <v>0.1014462749743149</v>
+        <v>0.03026242871952792</v>
       </c>
       <c r="F27">
-        <v>0.01274325699466671</v>
+        <v>0.07458570361402204</v>
       </c>
       <c r="G27">
-        <v>-0.01465593460756143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01641932229584617</v>
+      </c>
+      <c r="H27">
+        <v>-0.006171574892772347</v>
+      </c>
+      <c r="I27">
+        <v>0.001237257479137288</v>
+      </c>
+      <c r="J27">
+        <v>0.04674642305003728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.005430236107582139</v>
+        <v>-0.03853290763320925</v>
       </c>
       <c r="C28">
-        <v>0.2454902429485212</v>
+        <v>-0.2020144974783518</v>
       </c>
       <c r="D28">
-        <v>-0.01902436158355148</v>
+        <v>0.1244122557292991</v>
       </c>
       <c r="E28">
-        <v>0.04280448718775415</v>
+        <v>-0.03384477823094432</v>
       </c>
       <c r="F28">
-        <v>0.01927367060560171</v>
+        <v>0.05821350727054768</v>
       </c>
       <c r="G28">
-        <v>-0.001401703848731423</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02610612116004569</v>
+      </c>
+      <c r="H28">
+        <v>0.01357212975758406</v>
+      </c>
+      <c r="I28">
+        <v>0.1492673067491014</v>
+      </c>
+      <c r="J28">
+        <v>0.05565004563243704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02219954414496812</v>
+        <v>-0.02167300143710463</v>
       </c>
       <c r="C29">
-        <v>-0.01522266852073992</v>
+        <v>0.01231081410379667</v>
       </c>
       <c r="D29">
-        <v>0.02351539596691634</v>
+        <v>-0.01810783091561202</v>
       </c>
       <c r="E29">
-        <v>0.02521381350465162</v>
+        <v>0.02270379149912245</v>
       </c>
       <c r="F29">
-        <v>0.01457596216319428</v>
+        <v>0.03705591253216427</v>
       </c>
       <c r="G29">
-        <v>0.01476188305903908</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03521545530561122</v>
+      </c>
+      <c r="H29">
+        <v>-0.04595409922897412</v>
+      </c>
+      <c r="I29">
+        <v>-0.001246296123834117</v>
+      </c>
+      <c r="J29">
+        <v>0.01229339213129392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1094203896373154</v>
+        <v>-0.09446211839596029</v>
       </c>
       <c r="C30">
-        <v>-0.0115458349844484</v>
+        <v>0.05791989885475583</v>
       </c>
       <c r="D30">
-        <v>0.01849519370781542</v>
+        <v>0.01202930069471414</v>
       </c>
       <c r="E30">
-        <v>0.1120944902237063</v>
+        <v>0.02884032439088203</v>
       </c>
       <c r="F30">
-        <v>0.008123307964421678</v>
+        <v>0.1001238704225761</v>
       </c>
       <c r="G30">
-        <v>0.04450006585928702</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01339366690802314</v>
+      </c>
+      <c r="H30">
+        <v>-0.01323167251683847</v>
+      </c>
+      <c r="I30">
+        <v>-0.02613494760434725</v>
+      </c>
+      <c r="J30">
+        <v>0.0275163134624782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05827371266670871</v>
+        <v>-0.06251866495030944</v>
       </c>
       <c r="C31">
-        <v>-0.01362307470737753</v>
+        <v>0.02432879781109747</v>
       </c>
       <c r="D31">
-        <v>0.01982638101467303</v>
+        <v>-0.0001350978067314428</v>
       </c>
       <c r="E31">
-        <v>-0.01811057109440354</v>
+        <v>0.02020322201792932</v>
       </c>
       <c r="F31">
-        <v>0.01223158351302556</v>
+        <v>0.003346938458871554</v>
       </c>
       <c r="G31">
-        <v>0.04926404849254306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.04454064760909657</v>
+      </c>
+      <c r="H31">
+        <v>-0.02835569519254328</v>
+      </c>
+      <c r="I31">
+        <v>0.004475372941622917</v>
+      </c>
+      <c r="J31">
+        <v>0.01746065950178734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.07053009604498545</v>
+        <v>-0.04696235334701217</v>
       </c>
       <c r="C32">
-        <v>-0.02625341762147254</v>
+        <v>0.03654188001998285</v>
       </c>
       <c r="D32">
-        <v>0.00961228768598823</v>
+        <v>-0.0375690103177136</v>
       </c>
       <c r="E32">
-        <v>0.1100386946271577</v>
+        <v>0.02366142343292824</v>
       </c>
       <c r="F32">
-        <v>-0.007126757815131223</v>
+        <v>0.08984363092890461</v>
       </c>
       <c r="G32">
-        <v>0.02081612804784525</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01414448967149067</v>
+      </c>
+      <c r="H32">
+        <v>-0.03444455891822283</v>
+      </c>
+      <c r="I32">
+        <v>0.003127140386105829</v>
+      </c>
+      <c r="J32">
+        <v>0.05245599552471941</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.07041854426615701</v>
+        <v>-0.05784134056663533</v>
       </c>
       <c r="C33">
-        <v>-0.03378941616679264</v>
+        <v>0.05337674173149052</v>
       </c>
       <c r="D33">
-        <v>0.005697483220306201</v>
+        <v>-0.008307642020088398</v>
       </c>
       <c r="E33">
-        <v>0.07373577340466875</v>
+        <v>0.004644117696105498</v>
       </c>
       <c r="F33">
-        <v>0.04751728988030414</v>
+        <v>0.07874231910727757</v>
       </c>
       <c r="G33">
-        <v>0.009890085534071813</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03720805896066847</v>
+      </c>
+      <c r="H33">
+        <v>-0.03411214492753894</v>
+      </c>
+      <c r="I33">
+        <v>-0.02836834247097763</v>
+      </c>
+      <c r="J33">
+        <v>0.04702548120723112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04976029447555915</v>
+        <v>-0.04508528085790474</v>
       </c>
       <c r="C34">
-        <v>-0.01289490316674394</v>
+        <v>0.02352564576371638</v>
       </c>
       <c r="D34">
-        <v>-0.004163833626314091</v>
+        <v>-0.01690893683717403</v>
       </c>
       <c r="E34">
-        <v>0.02370367453825389</v>
+        <v>0.01352376252117074</v>
       </c>
       <c r="F34">
-        <v>-0.004388813668098346</v>
+        <v>0.03247946991460968</v>
       </c>
       <c r="G34">
-        <v>0.01141672852822116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.004262012295081529</v>
+      </c>
+      <c r="H34">
+        <v>-0.01188956566159928</v>
+      </c>
+      <c r="I34">
+        <v>-0.02064284707579196</v>
+      </c>
+      <c r="J34">
+        <v>0.02572891203078188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01352420106816784</v>
+        <v>-0.01589915251072145</v>
       </c>
       <c r="C36">
-        <v>0.008759004891590823</v>
+        <v>0.0004327101999099783</v>
       </c>
       <c r="D36">
-        <v>0.006776732491726578</v>
+        <v>-0.005047503621809167</v>
       </c>
       <c r="E36">
-        <v>0.02078518869180943</v>
+        <v>0.008133095404987519</v>
       </c>
       <c r="F36">
-        <v>0.005994637023063298</v>
+        <v>0.02704199655939307</v>
       </c>
       <c r="G36">
-        <v>0.01547351383224757</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02480524109774974</v>
+      </c>
+      <c r="H36">
+        <v>-0.02645892472508391</v>
+      </c>
+      <c r="I36">
+        <v>-0.003588067163231074</v>
+      </c>
+      <c r="J36">
+        <v>0.00530716518457764</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05697722887351503</v>
+        <v>-0.03434531716713696</v>
       </c>
       <c r="C38">
-        <v>-0.008803725099073271</v>
+        <v>0.01029148140236632</v>
       </c>
       <c r="D38">
-        <v>0.02299212552992384</v>
+        <v>-0.008450073634027049</v>
       </c>
       <c r="E38">
-        <v>0.03607833234434336</v>
+        <v>0.008910934934191851</v>
       </c>
       <c r="F38">
-        <v>0.002195464011143326</v>
+        <v>0.05090746365090802</v>
       </c>
       <c r="G38">
-        <v>-0.02539314482500545</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.0279316137453619</v>
+      </c>
+      <c r="H38">
+        <v>-0.01088457274960032</v>
+      </c>
+      <c r="I38">
+        <v>-0.01058683883322557</v>
+      </c>
+      <c r="J38">
+        <v>0.000292243733720571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07706822298183011</v>
+        <v>-0.05738601096397841</v>
       </c>
       <c r="C39">
-        <v>-0.01182070225825167</v>
+        <v>0.03956245312615297</v>
       </c>
       <c r="D39">
-        <v>0.0007231583628697653</v>
+        <v>-0.01575585993602147</v>
       </c>
       <c r="E39">
-        <v>0.04164895870303559</v>
+        <v>0.01397896888415603</v>
       </c>
       <c r="F39">
-        <v>0.02055330649971842</v>
+        <v>0.05536180551220109</v>
       </c>
       <c r="G39">
-        <v>0.01164421761499728</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.0167140150150413</v>
+      </c>
+      <c r="H39">
+        <v>0.0005637847504274162</v>
+      </c>
+      <c r="I39">
+        <v>-0.04647874585151922</v>
+      </c>
+      <c r="J39">
+        <v>0.03171833170601037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07624299596359747</v>
+        <v>-0.05703799201045251</v>
       </c>
       <c r="C40">
-        <v>-0.02979915505212153</v>
+        <v>0.04592841547716393</v>
       </c>
       <c r="D40">
-        <v>0.001676971720540285</v>
+        <v>-0.001296616393054714</v>
       </c>
       <c r="E40">
-        <v>0.09847991400380536</v>
+        <v>0.01874991143691351</v>
       </c>
       <c r="F40">
-        <v>0.02971031809809228</v>
+        <v>0.09693350522846952</v>
       </c>
       <c r="G40">
-        <v>-0.03910147122501911</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02811261560093154</v>
+      </c>
+      <c r="H40">
+        <v>-0.05017366326597224</v>
+      </c>
+      <c r="I40">
+        <v>-0.02483212915676303</v>
+      </c>
+      <c r="J40">
+        <v>0.1126151963578972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003710564746945147</v>
+        <v>-0.002457272793881411</v>
       </c>
       <c r="C41">
-        <v>-0.01108072864945339</v>
+        <v>0.01007961991859642</v>
       </c>
       <c r="D41">
-        <v>0.02138537268969255</v>
+        <v>-0.00667548920846852</v>
       </c>
       <c r="E41">
-        <v>0.01318711010097413</v>
+        <v>0.006439960862852027</v>
       </c>
       <c r="F41">
-        <v>0.02976157470251523</v>
+        <v>0.01480485980190674</v>
       </c>
       <c r="G41">
-        <v>0.0195615424436299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03925298087107796</v>
+      </c>
+      <c r="H41">
+        <v>-0.03076021726933574</v>
+      </c>
+      <c r="I41">
+        <v>0.01596763618359645</v>
+      </c>
+      <c r="J41">
+        <v>0.02011305404837352</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1288935487021328</v>
+        <v>-0.2152760861324803</v>
       </c>
       <c r="C42">
-        <v>-0.1993915189583774</v>
+        <v>0.1819417218119043</v>
       </c>
       <c r="D42">
-        <v>-0.928514374540045</v>
+        <v>-0.02662920410809212</v>
       </c>
       <c r="E42">
-        <v>-0.07128386567892117</v>
+        <v>-0.9293946988048108</v>
       </c>
       <c r="F42">
-        <v>-0.03271205568106089</v>
+        <v>-0.1621291764329078</v>
       </c>
       <c r="G42">
-        <v>0.0683873977600474</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.009151254059966451</v>
+      </c>
+      <c r="H42">
+        <v>-0.001019350966377029</v>
+      </c>
+      <c r="I42">
+        <v>0.04077063262793559</v>
+      </c>
+      <c r="J42">
+        <v>0.03735784126916117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.007955369134942915</v>
+        <v>-0.005116660228559531</v>
       </c>
       <c r="C43">
-        <v>-0.01585196599046306</v>
+        <v>0.01435037044469853</v>
       </c>
       <c r="D43">
-        <v>0.01511047776956375</v>
+        <v>-0.005975587214501394</v>
       </c>
       <c r="E43">
-        <v>0.03447912767612246</v>
+        <v>0.006319900047038448</v>
       </c>
       <c r="F43">
-        <v>0.005456608532294271</v>
+        <v>0.02803358028966241</v>
       </c>
       <c r="G43">
-        <v>0.0186820856346538</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.02282797317263217</v>
+      </c>
+      <c r="H43">
+        <v>-0.03116016335481274</v>
+      </c>
+      <c r="I43">
+        <v>0.00576542261003722</v>
+      </c>
+      <c r="J43">
+        <v>0.02769766938068523</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04055383062942169</v>
+        <v>-0.02864966867239768</v>
       </c>
       <c r="C44">
-        <v>-0.03737561527626223</v>
+        <v>0.03616200838601166</v>
       </c>
       <c r="D44">
-        <v>0.007558404432693961</v>
+        <v>-0.02305277358599535</v>
       </c>
       <c r="E44">
-        <v>0.1198611572581577</v>
+        <v>0.004762158011324486</v>
       </c>
       <c r="F44">
-        <v>0.09023233476407751</v>
+        <v>0.1229157169310981</v>
       </c>
       <c r="G44">
-        <v>0.01834564487816643</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.06555532353799991</v>
+      </c>
+      <c r="H44">
+        <v>-0.09664804556837324</v>
+      </c>
+      <c r="I44">
+        <v>0.01572845823473421</v>
+      </c>
+      <c r="J44">
+        <v>0.03826487178822597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02501342686695923</v>
+        <v>-0.02419620836649199</v>
       </c>
       <c r="C46">
-        <v>-0.01397607599913053</v>
+        <v>0.02561335413146169</v>
       </c>
       <c r="D46">
-        <v>0.02362187360772223</v>
+        <v>-0.01171313650432972</v>
       </c>
       <c r="E46">
-        <v>0.02384481905510243</v>
+        <v>0.01957433302706503</v>
       </c>
       <c r="F46">
-        <v>0.02502961210069744</v>
+        <v>0.04564142866225206</v>
       </c>
       <c r="G46">
-        <v>0.0241544136690383</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.0322745374383019</v>
+      </c>
+      <c r="H46">
+        <v>-0.04837284281470561</v>
+      </c>
+      <c r="I46">
+        <v>0.00177948558568489</v>
+      </c>
+      <c r="J46">
+        <v>0.0301355773728111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08529206999369328</v>
+        <v>-0.09123002784699744</v>
       </c>
       <c r="C47">
-        <v>-0.007966090087930375</v>
+        <v>0.01964047082895671</v>
       </c>
       <c r="D47">
-        <v>0.02009133326247521</v>
+        <v>-0.002349338030368567</v>
       </c>
       <c r="E47">
-        <v>-0.0219991057751767</v>
+        <v>0.02459220341534002</v>
       </c>
       <c r="F47">
-        <v>0.01110078059196497</v>
+        <v>-0.009600622142442264</v>
       </c>
       <c r="G47">
-        <v>0.02974794588786319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04895304617045329</v>
+      </c>
+      <c r="H47">
+        <v>-0.052674758128205</v>
+      </c>
+      <c r="I47">
+        <v>0.007838790262489716</v>
+      </c>
+      <c r="J47">
+        <v>0.02773643469467452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01759634153540533</v>
+        <v>-0.01872717459100727</v>
       </c>
       <c r="C48">
-        <v>-0.01962124852103632</v>
+        <v>0.01793891303548643</v>
       </c>
       <c r="D48">
-        <v>0.0159676836411452</v>
+        <v>-0.01222483306888099</v>
       </c>
       <c r="E48">
-        <v>0.02937323691501613</v>
+        <v>0.01103353521588646</v>
       </c>
       <c r="F48">
-        <v>0.008632975888415703</v>
+        <v>0.03032474942836558</v>
       </c>
       <c r="G48">
-        <v>0.003751463855266515</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01618173001063717</v>
+      </c>
+      <c r="H48">
+        <v>-0.02207102695876115</v>
+      </c>
+      <c r="I48">
+        <v>0.006851297371927186</v>
+      </c>
+      <c r="J48">
+        <v>0.01911256252822195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.08696969376259103</v>
+        <v>-0.08772318127132173</v>
       </c>
       <c r="C50">
-        <v>-0.0303717389079506</v>
+        <v>0.02707914014900718</v>
       </c>
       <c r="D50">
-        <v>0.02657392247652746</v>
+        <v>-0.02535658880233099</v>
       </c>
       <c r="E50">
-        <v>-0.01656356721691047</v>
+        <v>0.02133081594865348</v>
       </c>
       <c r="F50">
-        <v>0.001294636042468522</v>
+        <v>-0.002166727772838259</v>
       </c>
       <c r="G50">
-        <v>0.03710188189409401</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.008490148581046426</v>
+      </c>
+      <c r="H50">
+        <v>-0.04138547572485838</v>
+      </c>
+      <c r="I50">
+        <v>-0.01532655600860866</v>
+      </c>
+      <c r="J50">
+        <v>-0.001706224765814464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06862081661801106</v>
+        <v>-0.04687850262385162</v>
       </c>
       <c r="C51">
-        <v>0.02310960898843559</v>
+        <v>0.006591729573881245</v>
       </c>
       <c r="D51">
-        <v>-0.003956386166311093</v>
+        <v>0.01255960235212946</v>
       </c>
       <c r="E51">
-        <v>0.08296074400818992</v>
+        <v>0.008386141994368768</v>
       </c>
       <c r="F51">
-        <v>0.05321970102369529</v>
+        <v>0.09531734425888867</v>
       </c>
       <c r="G51">
-        <v>0.05697809592710597</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05738128156794658</v>
+      </c>
+      <c r="H51">
+        <v>-0.0418700811861254</v>
+      </c>
+      <c r="I51">
+        <v>0.01063975267298856</v>
+      </c>
+      <c r="J51">
+        <v>0.05128783561928416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1452060281453875</v>
+        <v>-0.1275826086959986</v>
       </c>
       <c r="C53">
-        <v>-0.007081499637661792</v>
+        <v>0.03315988926392768</v>
       </c>
       <c r="D53">
-        <v>0.04202829405855909</v>
+        <v>-0.007598900676870649</v>
       </c>
       <c r="E53">
-        <v>-0.04279913194006719</v>
+        <v>0.0458105605061736</v>
       </c>
       <c r="F53">
-        <v>-0.004178555876563693</v>
+        <v>-0.03850181986169104</v>
       </c>
       <c r="G53">
-        <v>0.03860260543591015</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02656828642566295</v>
+      </c>
+      <c r="H53">
+        <v>0.004357735133604779</v>
+      </c>
+      <c r="I53">
+        <v>0.02538460671412811</v>
+      </c>
+      <c r="J53">
+        <v>0.04203557291612184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02922613163139758</v>
+        <v>-0.02488224105658182</v>
       </c>
       <c r="C54">
-        <v>0.004638685093173506</v>
+        <v>0.003327277765843421</v>
       </c>
       <c r="D54">
-        <v>0.02832186653679933</v>
+        <v>-0.007563553796651923</v>
       </c>
       <c r="E54">
-        <v>0.02967976271378765</v>
+        <v>0.02494189003449572</v>
       </c>
       <c r="F54">
-        <v>0.04658310950240736</v>
+        <v>0.03870589624387771</v>
       </c>
       <c r="G54">
-        <v>0.001257672318044735</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05347405845794295</v>
+      </c>
+      <c r="H54">
+        <v>-0.04021662951639794</v>
+      </c>
+      <c r="I54">
+        <v>0.02758600863359519</v>
+      </c>
+      <c r="J54">
+        <v>0.009356395220230624</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.1000657299031593</v>
+        <v>-0.1011557768279925</v>
       </c>
       <c r="C55">
-        <v>0.005141212145344777</v>
+        <v>0.01414566578748119</v>
       </c>
       <c r="D55">
-        <v>0.03630066102992155</v>
+        <v>-0.02033063841012987</v>
       </c>
       <c r="E55">
-        <v>-0.007719280448438854</v>
+        <v>0.03182136301048308</v>
       </c>
       <c r="F55">
-        <v>-0.03906942921854992</v>
+        <v>-0.02921347726317988</v>
       </c>
       <c r="G55">
-        <v>-0.02093172508657866</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.006315976841526439</v>
+      </c>
+      <c r="H55">
+        <v>-0.01572493883218796</v>
+      </c>
+      <c r="I55">
+        <v>0.00773008129519371</v>
+      </c>
+      <c r="J55">
+        <v>0.03765092241915741</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1792009993557962</v>
+        <v>-0.1689082685839387</v>
       </c>
       <c r="C56">
-        <v>0.01395587721700763</v>
+        <v>0.01643320377136354</v>
       </c>
       <c r="D56">
-        <v>0.07849066346802464</v>
+        <v>-0.008251054162935707</v>
       </c>
       <c r="E56">
-        <v>-0.08647294962022517</v>
+        <v>0.0847703563178628</v>
       </c>
       <c r="F56">
-        <v>-0.07597322297784284</v>
+        <v>-0.08554148255433981</v>
       </c>
       <c r="G56">
-        <v>0.004018966539353795</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02847956605050397</v>
+      </c>
+      <c r="H56">
+        <v>0.03847268999550713</v>
+      </c>
+      <c r="I56">
+        <v>0.01653487627889532</v>
+      </c>
+      <c r="J56">
+        <v>0.04735398153766279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09690304015939125</v>
+        <v>-0.07314202573717957</v>
       </c>
       <c r="C57">
-        <v>-0.02309286134797264</v>
+        <v>0.03983535247188908</v>
       </c>
       <c r="D57">
-        <v>0.02226816890909999</v>
+        <v>-0.00235626592365252</v>
       </c>
       <c r="E57">
-        <v>0.04310138821027946</v>
+        <v>0.01286096662931401</v>
       </c>
       <c r="F57">
-        <v>0.02665466551859657</v>
+        <v>0.06027212940976912</v>
       </c>
       <c r="G57">
-        <v>0.01897978440475821</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.02419840020074103</v>
+      </c>
+      <c r="H57">
+        <v>-0.0240098000190104</v>
+      </c>
+      <c r="I57">
+        <v>-0.01814060096308974</v>
+      </c>
+      <c r="J57">
+        <v>0.03334278169861111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1776148954342005</v>
+        <v>-0.2015666756966238</v>
       </c>
       <c r="C58">
-        <v>-0.003342432344480605</v>
+        <v>0.1090104165266307</v>
       </c>
       <c r="D58">
-        <v>-0.04536435782742951</v>
+        <v>0.04185780275889626</v>
       </c>
       <c r="E58">
-        <v>0.1280102223721419</v>
+        <v>-0.01395521091499076</v>
       </c>
       <c r="F58">
-        <v>-0.05800696316553048</v>
+        <v>0.2399306108043164</v>
       </c>
       <c r="G58">
-        <v>0.006564713538054416</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1261090871237185</v>
+      </c>
+      <c r="H58">
+        <v>-0.390221418494057</v>
+      </c>
+      <c r="I58">
+        <v>0.1148401947520274</v>
+      </c>
+      <c r="J58">
+        <v>-0.7511288664277512</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.00713988867573901</v>
+        <v>-0.0391486375884578</v>
       </c>
       <c r="C59">
-        <v>0.2024029332983834</v>
+        <v>-0.1570177749847239</v>
       </c>
       <c r="D59">
-        <v>0.009121975744063116</v>
+        <v>0.1180604982512092</v>
       </c>
       <c r="E59">
-        <v>0.0570776304378698</v>
+        <v>0.002557810936016632</v>
       </c>
       <c r="F59">
-        <v>0.01142267739931076</v>
+        <v>0.07186593683327726</v>
       </c>
       <c r="G59">
-        <v>0.007484560763076646</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.00309764264579403</v>
+      </c>
+      <c r="H59">
+        <v>0.02342786460798067</v>
+      </c>
+      <c r="I59">
+        <v>0.06186485151834575</v>
+      </c>
+      <c r="J59">
+        <v>0.008353847326646128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.187276488192598</v>
+        <v>-0.184346643764445</v>
       </c>
       <c r="C60">
-        <v>0.1039061397865342</v>
+        <v>-0.01240797924430661</v>
       </c>
       <c r="D60">
-        <v>0.01199077023813358</v>
+        <v>0.06767598101183765</v>
       </c>
       <c r="E60">
-        <v>0.1808291020635101</v>
+        <v>0.01136571281817622</v>
       </c>
       <c r="F60">
-        <v>0.05489394238289588</v>
+        <v>0.2014173265273948</v>
       </c>
       <c r="G60">
-        <v>0.02450754001683847</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1025893008908591</v>
+      </c>
+      <c r="H60">
+        <v>0.2592356839468389</v>
+      </c>
+      <c r="I60">
+        <v>-0.09271846866641857</v>
+      </c>
+      <c r="J60">
+        <v>-0.01728749754485248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.04870197098167441</v>
+        <v>-0.03802985295170083</v>
       </c>
       <c r="C61">
-        <v>-0.0008278096615049857</v>
+        <v>0.02103593286077972</v>
       </c>
       <c r="D61">
-        <v>-0.00616710687182924</v>
+        <v>-0.01205593647871584</v>
       </c>
       <c r="E61">
-        <v>0.04316580813878567</v>
+        <v>0.003337415353352698</v>
       </c>
       <c r="F61">
-        <v>0.01080521313239952</v>
+        <v>0.04081998958411604</v>
       </c>
       <c r="G61">
-        <v>0.003387966290009841</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.00846602230862932</v>
+      </c>
+      <c r="H61">
+        <v>0.00255002428027914</v>
+      </c>
+      <c r="I61">
+        <v>-0.04260558511245902</v>
+      </c>
+      <c r="J61">
+        <v>0.01052939535498825</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.04811938174624148</v>
+        <v>-0.03255699852580569</v>
       </c>
       <c r="C63">
-        <v>0.003348036670545872</v>
+        <v>0.01781347334530067</v>
       </c>
       <c r="D63">
-        <v>0.01410707420652956</v>
+        <v>-0.007426932548613817</v>
       </c>
       <c r="E63">
-        <v>0.03321140038437508</v>
+        <v>0.01395974355925766</v>
       </c>
       <c r="F63">
-        <v>0.004139206336454585</v>
+        <v>0.02855424072390138</v>
       </c>
       <c r="G63">
-        <v>0.01581869603178728</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01877461596610007</v>
+      </c>
+      <c r="H63">
+        <v>-0.03796082567462372</v>
+      </c>
+      <c r="I63">
+        <v>0.01541405443210226</v>
+      </c>
+      <c r="J63">
+        <v>0.04580494290570798</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.08168499036599733</v>
+        <v>-0.05582686843838584</v>
       </c>
       <c r="C64">
-        <v>-0.0424213834630942</v>
+        <v>0.03617387207744087</v>
       </c>
       <c r="D64">
-        <v>0.05893895468709034</v>
+        <v>-0.03779771153840011</v>
       </c>
       <c r="E64">
-        <v>0.06241825396121152</v>
+        <v>0.03821478502395683</v>
       </c>
       <c r="F64">
-        <v>0.05892652522965691</v>
+        <v>0.0554205272775012</v>
       </c>
       <c r="G64">
-        <v>-0.0285821029721765</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05474284414621729</v>
+      </c>
+      <c r="H64">
+        <v>0.008990795944465432</v>
+      </c>
+      <c r="I64">
+        <v>-0.006880957393137842</v>
+      </c>
+      <c r="J64">
+        <v>0.0958488380502268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01974498716814676</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.002711316667602941</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.008667727524095642</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.002625129052552002</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.002006410938118213</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.021172156136926</v>
+      </c>
+      <c r="H65">
+        <v>0.001312667337270175</v>
+      </c>
+      <c r="I65">
+        <v>-0.01116725003779818</v>
+      </c>
+      <c r="J65">
+        <v>0.001902285303651102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.09623999964852745</v>
+        <v>-0.0690546906165522</v>
       </c>
       <c r="C66">
-        <v>-0.02391048372524299</v>
+        <v>0.0555638120641696</v>
       </c>
       <c r="D66">
-        <v>0.03638276584073768</v>
+        <v>-0.01605475476805738</v>
       </c>
       <c r="E66">
-        <v>0.07847808545085254</v>
+        <v>0.04194336745928957</v>
       </c>
       <c r="F66">
-        <v>0.04440303519256584</v>
+        <v>0.0696359179551338</v>
       </c>
       <c r="G66">
-        <v>0.02097883991859025</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01506582592471702</v>
+      </c>
+      <c r="H66">
+        <v>0.003849568550859235</v>
+      </c>
+      <c r="I66">
+        <v>-0.06402389982688593</v>
+      </c>
+      <c r="J66">
+        <v>0.05405550548068358</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06413258866920606</v>
+        <v>-0.0458964547319281</v>
       </c>
       <c r="C67">
-        <v>0.01528896853195997</v>
+        <v>-0.002350144465830588</v>
       </c>
       <c r="D67">
-        <v>0.009182302779101736</v>
+        <v>0.003960697550627729</v>
       </c>
       <c r="E67">
-        <v>0.02956797320549163</v>
+        <v>0.006965614135774433</v>
       </c>
       <c r="F67">
-        <v>0.005928963204230712</v>
+        <v>0.03992389129221221</v>
       </c>
       <c r="G67">
-        <v>-0.03410935746646578</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03268121164907081</v>
+      </c>
+      <c r="H67">
+        <v>0.01215427898135695</v>
+      </c>
+      <c r="I67">
+        <v>-0.04116166737790354</v>
+      </c>
+      <c r="J67">
+        <v>0.0008061085593548399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.004627187722475816</v>
+        <v>-0.04556581007445287</v>
       </c>
       <c r="C68">
-        <v>0.2492284947681468</v>
+        <v>-0.1894639231841058</v>
       </c>
       <c r="D68">
-        <v>-0.008064190438810478</v>
+        <v>0.1336493533563849</v>
       </c>
       <c r="E68">
-        <v>0.04331731885656153</v>
+        <v>-0.008066595847936424</v>
       </c>
       <c r="F68">
-        <v>0.005806929806011759</v>
+        <v>0.05708050419121098</v>
       </c>
       <c r="G68">
-        <v>0.01797580774166591</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.004672560274189343</v>
+      </c>
+      <c r="H68">
+        <v>0.01482251134516788</v>
+      </c>
+      <c r="I68">
+        <v>0.1704095797979466</v>
+      </c>
+      <c r="J68">
+        <v>-0.008364888232306317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.07071806797795116</v>
+        <v>-0.07137924188970575</v>
       </c>
       <c r="C69">
-        <v>-0.01214882081272185</v>
+        <v>0.02260651741179513</v>
       </c>
       <c r="D69">
-        <v>0.02222124645190729</v>
+        <v>-0.005381295145351611</v>
       </c>
       <c r="E69">
-        <v>-0.01095705574591014</v>
+        <v>0.02953250607573797</v>
       </c>
       <c r="F69">
-        <v>0.00219525398170354</v>
+        <v>0.0007981811036844543</v>
       </c>
       <c r="G69">
-        <v>0.02535342607904335</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02951307015037106</v>
+      </c>
+      <c r="H69">
+        <v>-0.02712795514480029</v>
+      </c>
+      <c r="I69">
+        <v>-0.01439630673554697</v>
+      </c>
+      <c r="J69">
+        <v>0.02751122056004571</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.006818762096412434</v>
+        <v>-0.05019556823823047</v>
       </c>
       <c r="C71">
-        <v>0.2720239500180271</v>
+        <v>-0.2009271558512899</v>
       </c>
       <c r="D71">
-        <v>-0.0112618447152202</v>
+        <v>0.1498693312178079</v>
       </c>
       <c r="E71">
-        <v>0.08137038868629634</v>
+        <v>-0.03109284904920204</v>
       </c>
       <c r="F71">
-        <v>0.02130985632257239</v>
+        <v>0.08132094489190603</v>
       </c>
       <c r="G71">
-        <v>0.04047114111642649</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01330508788879125</v>
+      </c>
+      <c r="H71">
+        <v>0.03614718675496429</v>
+      </c>
+      <c r="I71">
+        <v>0.1296779040020059</v>
+      </c>
+      <c r="J71">
+        <v>0.01958024112584975</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1156845572755774</v>
+        <v>-0.1185376977238248</v>
       </c>
       <c r="C72">
-        <v>0.009927249008462037</v>
+        <v>0.02568788566439225</v>
       </c>
       <c r="D72">
-        <v>0.04394152969226368</v>
+        <v>-0.00563098075628459</v>
       </c>
       <c r="E72">
-        <v>0.09789342333220748</v>
+        <v>0.05736250998486819</v>
       </c>
       <c r="F72">
-        <v>-0.01180846171461762</v>
+        <v>0.087842198824034</v>
       </c>
       <c r="G72">
-        <v>-0.02701097096725289</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04533577682624442</v>
+      </c>
+      <c r="H72">
+        <v>-0.01055937059053079</v>
+      </c>
+      <c r="I72">
+        <v>-0.02633966558732179</v>
+      </c>
+      <c r="J72">
+        <v>-0.1081912023178927</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2764092414611384</v>
+        <v>-0.2651656294010824</v>
       </c>
       <c r="C73">
-        <v>0.1701822981731677</v>
+        <v>-0.02656452610611967</v>
       </c>
       <c r="D73">
-        <v>-0.04657315086748118</v>
+        <v>0.1282943052848165</v>
       </c>
       <c r="E73">
-        <v>0.3352719152592358</v>
+        <v>-0.03341194939299382</v>
       </c>
       <c r="F73">
-        <v>0.06099264719171662</v>
+        <v>0.3123881246956234</v>
       </c>
       <c r="G73">
-        <v>0.01225278038259939</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.2139159124046413</v>
+      </c>
+      <c r="H73">
+        <v>0.450219189930812</v>
+      </c>
+      <c r="I73">
+        <v>-0.3014591102022118</v>
+      </c>
+      <c r="J73">
+        <v>-0.07932660859987943</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1581582630399611</v>
+        <v>-0.152263269639006</v>
       </c>
       <c r="C74">
-        <v>0.005237988718671974</v>
+        <v>0.02714963729790686</v>
       </c>
       <c r="D74">
-        <v>0.0424228786234196</v>
+        <v>0.001945128700281082</v>
       </c>
       <c r="E74">
-        <v>-0.01828435091738266</v>
+        <v>0.04793576442994676</v>
       </c>
       <c r="F74">
-        <v>-0.0561616592284172</v>
+        <v>-0.05228420029807748</v>
       </c>
       <c r="G74">
-        <v>0.05152140680516974</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01966484171514905</v>
+      </c>
+      <c r="H74">
+        <v>0.02680289433987454</v>
+      </c>
+      <c r="I74">
+        <v>-0.009156730882328396</v>
+      </c>
+      <c r="J74">
+        <v>0.08345451760334223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2336951982249479</v>
+        <v>-0.2457327395215393</v>
       </c>
       <c r="C75">
-        <v>0.01941929357110599</v>
+        <v>0.02850316458414406</v>
       </c>
       <c r="D75">
-        <v>0.06497575586158934</v>
+        <v>0.01847785522665779</v>
       </c>
       <c r="E75">
-        <v>-0.1249327361268347</v>
+        <v>0.1061157871365972</v>
       </c>
       <c r="F75">
-        <v>-0.04310500494520777</v>
+        <v>-0.1406485856907096</v>
       </c>
       <c r="G75">
-        <v>0.0459422692150035</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.004136844074254757</v>
+      </c>
+      <c r="H75">
+        <v>0.02111644661584088</v>
+      </c>
+      <c r="I75">
+        <v>0.08269804689225549</v>
+      </c>
+      <c r="J75">
+        <v>0.05523221510589125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2468822040026949</v>
+        <v>-0.2685811903015055</v>
       </c>
       <c r="C76">
-        <v>0.01612883832098758</v>
+        <v>0.0135624221790052</v>
       </c>
       <c r="D76">
-        <v>0.1101914972844319</v>
+        <v>-0.01650730654705431</v>
       </c>
       <c r="E76">
-        <v>-0.1227699228382552</v>
+        <v>0.1316932675176706</v>
       </c>
       <c r="F76">
-        <v>-0.07230215714158819</v>
+        <v>-0.1753432703430359</v>
       </c>
       <c r="G76">
-        <v>0.03797340286381894</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05000106163125988</v>
+      </c>
+      <c r="H76">
+        <v>0.03854318261566525</v>
+      </c>
+      <c r="I76">
+        <v>0.003782255384791586</v>
+      </c>
+      <c r="J76">
+        <v>0.06481198952676996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1330627076026674</v>
+        <v>-0.130227372430052</v>
       </c>
       <c r="C77">
-        <v>-0.01933349154792752</v>
+        <v>0.06226682546437527</v>
       </c>
       <c r="D77">
-        <v>-0.04940304414298139</v>
+        <v>-0.02401530839313235</v>
       </c>
       <c r="E77">
-        <v>0.1482486954291643</v>
+        <v>-0.04171406091918559</v>
       </c>
       <c r="F77">
-        <v>0.005803329818550493</v>
+        <v>0.1619843255119509</v>
       </c>
       <c r="G77">
-        <v>-0.0695787513124617</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.01894454412072205</v>
+      </c>
+      <c r="H77">
+        <v>-0.1969813394575153</v>
+      </c>
+      <c r="I77">
+        <v>0.1425125877666216</v>
+      </c>
+      <c r="J77">
+        <v>0.1433281171096339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.08612425062706887</v>
+        <v>-0.08240400885907448</v>
       </c>
       <c r="C78">
-        <v>-0.03842915756915423</v>
+        <v>0.06046049613960688</v>
       </c>
       <c r="D78">
-        <v>-0.0190811847179367</v>
+        <v>-0.03880971769307225</v>
       </c>
       <c r="E78">
-        <v>0.05262706645739986</v>
+        <v>-0.0009854027778309568</v>
       </c>
       <c r="F78">
-        <v>0.01233572414545485</v>
+        <v>0.07446749089741059</v>
       </c>
       <c r="G78">
-        <v>0.01428077218217732</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01261334800405962</v>
+      </c>
+      <c r="H78">
+        <v>-0.02187869694821385</v>
+      </c>
+      <c r="I78">
+        <v>0.01068549427742573</v>
+      </c>
+      <c r="J78">
+        <v>0.0513936551891058</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.07328964893758315</v>
+        <v>-0.1520763865006955</v>
       </c>
       <c r="C80">
-        <v>-0.01593975528172929</v>
+        <v>-0.5422273731718406</v>
       </c>
       <c r="D80">
-        <v>-0.01549857925367956</v>
+        <v>-0.8069764247928495</v>
       </c>
       <c r="E80">
-        <v>-0.02995427372245016</v>
+        <v>-0.06637833389981332</v>
       </c>
       <c r="F80">
-        <v>-0.1618026951736438</v>
+        <v>0.04860510001101451</v>
       </c>
       <c r="G80">
-        <v>-0.9251767994881424</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04216609693651038</v>
+      </c>
+      <c r="H80">
+        <v>0.05773930613347084</v>
+      </c>
+      <c r="I80">
+        <v>0.002889221884391734</v>
+      </c>
+      <c r="J80">
+        <v>-0.1037026507006686</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1621774108016431</v>
+        <v>-0.1809443221509063</v>
       </c>
       <c r="C81">
-        <v>0.01514673823216465</v>
+        <v>0.008053107459295985</v>
       </c>
       <c r="D81">
-        <v>0.05281433498165406</v>
+        <v>0.005606328085449848</v>
       </c>
       <c r="E81">
-        <v>-0.1499283036229048</v>
+        <v>0.08576827289954084</v>
       </c>
       <c r="F81">
-        <v>-0.09812504468644748</v>
+        <v>-0.1581679718094796</v>
       </c>
       <c r="G81">
-        <v>0.03876057945402792</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02837441158772407</v>
+      </c>
+      <c r="H81">
+        <v>0.009628289744866233</v>
+      </c>
+      <c r="I81">
+        <v>0.04695025725952587</v>
+      </c>
+      <c r="J81">
+        <v>0.02025162516376972</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.09381737484524282</v>
+        <v>-0.06837416397815027</v>
       </c>
       <c r="C83">
-        <v>-0.04131152059736538</v>
+        <v>0.04803411422389681</v>
       </c>
       <c r="D83">
-        <v>-0.08160088180677964</v>
+        <v>-0.0102549973760153</v>
       </c>
       <c r="E83">
-        <v>0.01529494819192299</v>
+        <v>-0.04067755513650521</v>
       </c>
       <c r="F83">
-        <v>0.0631708772911847</v>
+        <v>0.04882942946849228</v>
       </c>
       <c r="G83">
-        <v>0.0129975991410941</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.06081793448417217</v>
+      </c>
+      <c r="H83">
+        <v>-0.01247261138192888</v>
+      </c>
+      <c r="I83">
+        <v>-0.003722423872423452</v>
+      </c>
+      <c r="J83">
+        <v>0.08041184834446348</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2368941333059047</v>
+        <v>-0.2536649263393129</v>
       </c>
       <c r="C85">
-        <v>-0.04694057616113587</v>
+        <v>0.05078595994875869</v>
       </c>
       <c r="D85">
-        <v>0.06348284757442013</v>
+        <v>-0.01886145535813504</v>
       </c>
       <c r="E85">
-        <v>-0.151845598223491</v>
+        <v>0.08809190761416322</v>
       </c>
       <c r="F85">
-        <v>-0.07040940911704184</v>
+        <v>-0.1809459296921742</v>
       </c>
       <c r="G85">
-        <v>0.03395623405251374</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.00777548546809066</v>
+      </c>
+      <c r="H85">
+        <v>-0.0180432852269268</v>
+      </c>
+      <c r="I85">
+        <v>0.03572069974130335</v>
+      </c>
+      <c r="J85">
+        <v>0.106197999309032</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04697414388930737</v>
+        <v>-0.02628821021206348</v>
       </c>
       <c r="C86">
-        <v>-0.04432548272231956</v>
+        <v>0.05240987778177576</v>
       </c>
       <c r="D86">
-        <v>0.01436129359260657</v>
+        <v>-0.03181635201083021</v>
       </c>
       <c r="E86">
-        <v>0.06320012371627405</v>
+        <v>0.008123319385483748</v>
       </c>
       <c r="F86">
-        <v>-0.0006248467871469541</v>
+        <v>0.07133189420959885</v>
       </c>
       <c r="G86">
-        <v>0.03145531779889542</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.00878580741323918</v>
+      </c>
+      <c r="H86">
+        <v>-0.06379489904692012</v>
+      </c>
+      <c r="I86">
+        <v>0.01650087594197248</v>
+      </c>
+      <c r="J86">
+        <v>0.04969345546669977</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.01987739776258489</v>
+        <v>-0.03367757513353305</v>
       </c>
       <c r="C87">
-        <v>0.05018328665946908</v>
+        <v>-0.01075201768441408</v>
       </c>
       <c r="D87">
-        <v>0.005528735305853419</v>
+        <v>0.01252701356079974</v>
       </c>
       <c r="E87">
-        <v>0.09661445733708013</v>
+        <v>0.002227865847490629</v>
       </c>
       <c r="F87">
-        <v>-0.01299878666286501</v>
+        <v>0.1030866326854515</v>
       </c>
       <c r="G87">
-        <v>0.0348029532970375</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02039512628951876</v>
+      </c>
+      <c r="H87">
+        <v>-0.01613804318097308</v>
+      </c>
+      <c r="I87">
+        <v>-0.02192221431272785</v>
+      </c>
+      <c r="J87">
+        <v>0.00716130571702079</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.04021448020910209</v>
+        <v>-0.02837887278146392</v>
       </c>
       <c r="C88">
-        <v>-0.03015224391622616</v>
+        <v>0.01304584492575176</v>
       </c>
       <c r="D88">
-        <v>0.009002367032225253</v>
+        <v>-0.02146140464396211</v>
       </c>
       <c r="E88">
-        <v>-0.01209353642050444</v>
+        <v>0.01617977791041174</v>
       </c>
       <c r="F88">
-        <v>-0.01181582246455494</v>
+        <v>-0.01085611740635889</v>
       </c>
       <c r="G88">
-        <v>0.005674925866628462</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.04091536969900503</v>
+      </c>
+      <c r="H88">
+        <v>-0.03842444696541235</v>
+      </c>
+      <c r="I88">
+        <v>-0.03235005648460089</v>
+      </c>
+      <c r="J88">
+        <v>0.02938056439965867</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.01276051909304343</v>
+        <v>-0.06661134121620495</v>
       </c>
       <c r="C89">
-        <v>0.4171664878988366</v>
+        <v>-0.3133878181953225</v>
       </c>
       <c r="D89">
-        <v>-0.0947032277206664</v>
+        <v>0.2417447820348577</v>
       </c>
       <c r="E89">
-        <v>-0.0101953108024028</v>
+        <v>-0.0530424937047634</v>
       </c>
       <c r="F89">
-        <v>0.010067903946045</v>
+        <v>0.03673478964977072</v>
       </c>
       <c r="G89">
-        <v>0.02501396707073136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.05138984124392342</v>
+      </c>
+      <c r="H89">
+        <v>-0.03163272858955597</v>
+      </c>
+      <c r="I89">
+        <v>0.2775612407891301</v>
+      </c>
+      <c r="J89">
+        <v>0.02117467476866087</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.008859812579440351</v>
+        <v>-0.04568787298204209</v>
       </c>
       <c r="C90">
-        <v>0.3091894827612396</v>
+        <v>-0.2741292473277268</v>
       </c>
       <c r="D90">
-        <v>-0.03291977018195828</v>
+        <v>0.1900973038865817</v>
       </c>
       <c r="E90">
-        <v>0.04258581538827233</v>
+        <v>-0.03630766394125463</v>
       </c>
       <c r="F90">
-        <v>0.01676340683963956</v>
+        <v>0.03602008156746663</v>
       </c>
       <c r="G90">
-        <v>0.04056088541222739</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02547412014633781</v>
+      </c>
+      <c r="H90">
+        <v>0.003506765738182354</v>
+      </c>
+      <c r="I90">
+        <v>0.2253330238735397</v>
+      </c>
+      <c r="J90">
+        <v>0.03659826327480908</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.2918037308585316</v>
+        <v>-0.3081580464910909</v>
       </c>
       <c r="C91">
-        <v>-0.01154186078960217</v>
+        <v>0.03747416103621092</v>
       </c>
       <c r="D91">
-        <v>0.07209976084672988</v>
+        <v>-0.002073065931149392</v>
       </c>
       <c r="E91">
-        <v>-0.2926189220669013</v>
+        <v>0.0985277813417423</v>
       </c>
       <c r="F91">
-        <v>-0.1474041828924345</v>
+        <v>-0.2958570159631467</v>
       </c>
       <c r="G91">
-        <v>-0.03547425439747307</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.03660686422451503</v>
+      </c>
+      <c r="H91">
+        <v>0.006648491841387402</v>
+      </c>
+      <c r="I91">
+        <v>0.1023977451597409</v>
+      </c>
+      <c r="J91">
+        <v>0.113333159560784</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.00182140223446547</v>
+        <v>-0.1023964531462691</v>
       </c>
       <c r="C92">
-        <v>0.4298595237484273</v>
+        <v>-0.3812462851679352</v>
       </c>
       <c r="D92">
-        <v>-0.2032505932849815</v>
+        <v>0.2369824002587803</v>
       </c>
       <c r="E92">
-        <v>-0.1440648882744253</v>
+        <v>-0.07421677680175906</v>
       </c>
       <c r="F92">
-        <v>-0.07771515009611965</v>
+        <v>-0.1169973727177313</v>
       </c>
       <c r="G92">
-        <v>-0.1485947019978483</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.1326148837699081</v>
+      </c>
+      <c r="H92">
+        <v>-0.4281806334600861</v>
+      </c>
+      <c r="I92">
+        <v>-0.7297714064242767</v>
+      </c>
+      <c r="J92">
+        <v>0.0694931799330132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.01987747367604915</v>
+        <v>-0.05088329314268233</v>
       </c>
       <c r="C93">
-        <v>0.3763344777242035</v>
+        <v>-0.3280312459670473</v>
       </c>
       <c r="D93">
-        <v>-0.07310191476811558</v>
+        <v>0.2451556067606187</v>
       </c>
       <c r="E93">
-        <v>-0.03356259394368496</v>
+        <v>-0.06902757227100006</v>
       </c>
       <c r="F93">
-        <v>-0.01315787636718339</v>
+        <v>0.002875666421737027</v>
       </c>
       <c r="G93">
-        <v>-0.03643090423711953</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03669155051352996</v>
+      </c>
+      <c r="H93">
+        <v>0.02777176958879317</v>
+      </c>
+      <c r="I93">
+        <v>0.1909089122105017</v>
+      </c>
+      <c r="J93">
+        <v>0.0001364223168054815</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.2752705208922007</v>
+        <v>-0.3056255915755745</v>
       </c>
       <c r="C94">
-        <v>0.06781589947518651</v>
+        <v>0.00659896423756017</v>
       </c>
       <c r="D94">
-        <v>0.02203695881961591</v>
+        <v>0.04755544427823458</v>
       </c>
       <c r="E94">
-        <v>-0.3515358787902436</v>
+        <v>0.1326236349995182</v>
       </c>
       <c r="F94">
-        <v>-0.3927121647251428</v>
+        <v>-0.3369478651018295</v>
       </c>
       <c r="G94">
-        <v>0.1657607627161825</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.180375389834859</v>
+      </c>
+      <c r="H94">
+        <v>-0.1529397885242009</v>
+      </c>
+      <c r="I94">
+        <v>0.04611776886230892</v>
+      </c>
+      <c r="J94">
+        <v>-0.1887997712865188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1964573408809892</v>
+        <v>-0.1283353975737556</v>
       </c>
       <c r="C95">
-        <v>0.02651768001510056</v>
+        <v>0.09875126792242875</v>
       </c>
       <c r="D95">
-        <v>-0.003857728446143861</v>
+        <v>0.05412823180594514</v>
       </c>
       <c r="E95">
-        <v>-0.4062342601983257</v>
+        <v>0.02745206565381809</v>
       </c>
       <c r="F95">
-        <v>0.8332081615071445</v>
+        <v>-0.06408769111115035</v>
       </c>
       <c r="G95">
-        <v>-0.1137169963329702</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.8828894768207849</v>
+      </c>
+      <c r="H95">
+        <v>0.2449242899326142</v>
+      </c>
+      <c r="I95">
+        <v>-0.01785842567119355</v>
+      </c>
+      <c r="J95">
+        <v>-0.2784867503358979</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2191191930572721</v>
+        <v>-0.2056530391003814</v>
       </c>
       <c r="C98">
-        <v>0.1199313956125341</v>
+        <v>-0.01942295676858654</v>
       </c>
       <c r="D98">
-        <v>-0.04591057233301853</v>
+        <v>0.09056987172081603</v>
       </c>
       <c r="E98">
-        <v>0.1017792663018176</v>
+        <v>-0.02829015962070376</v>
       </c>
       <c r="F98">
-        <v>0.05957885789097676</v>
+        <v>0.161748477334929</v>
       </c>
       <c r="G98">
-        <v>0.07019106560142416</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1114091644301447</v>
+      </c>
+      <c r="H98">
+        <v>0.3209010572632731</v>
+      </c>
+      <c r="I98">
+        <v>-0.1450687433576009</v>
+      </c>
+      <c r="J98">
+        <v>-0.0809727768787166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02191513532002828</v>
+        <v>-0.01536086248721675</v>
       </c>
       <c r="C101">
-        <v>-0.01556790285304785</v>
+        <v>0.02346740468165065</v>
       </c>
       <c r="D101">
-        <v>0.02510205655679286</v>
+        <v>-0.02051813077131955</v>
       </c>
       <c r="E101">
-        <v>0.02568524384552156</v>
+        <v>0.02908905918733107</v>
       </c>
       <c r="F101">
-        <v>0.01433193099867714</v>
+        <v>0.06659663787811383</v>
       </c>
       <c r="G101">
-        <v>0.01477202604369987</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.0262779158380956</v>
+      </c>
+      <c r="H101">
+        <v>-0.1092685682012506</v>
+      </c>
+      <c r="I101">
+        <v>-0.009729331241579407</v>
+      </c>
+      <c r="J101">
+        <v>-0.1115993413058265</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1185751517764956</v>
+        <v>-0.1212726951096679</v>
       </c>
       <c r="C102">
-        <v>-0.01188902789185194</v>
+        <v>0.0190533963335035</v>
       </c>
       <c r="D102">
-        <v>0.03730811506084999</v>
+        <v>-0.01234914100492469</v>
       </c>
       <c r="E102">
-        <v>-0.08122145903059318</v>
+        <v>0.05275030167014278</v>
       </c>
       <c r="F102">
-        <v>-0.002814739605027824</v>
+        <v>-0.09523188540608218</v>
       </c>
       <c r="G102">
-        <v>-0.003431096351952421</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.02021565988488137</v>
+      </c>
+      <c r="H102">
+        <v>0.02510875930143511</v>
+      </c>
+      <c r="I102">
+        <v>0.0359765826810978</v>
+      </c>
+      <c r="J102">
+        <v>0.05069334735937434</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01766283231820152</v>
+        <v>-0.03089680740328417</v>
       </c>
       <c r="C103">
-        <v>2.568698000348218e-08</v>
+        <v>0.003292609608572343</v>
       </c>
       <c r="D103">
-        <v>0.0127406741006286</v>
+        <v>-0.009976529499838682</v>
       </c>
       <c r="E103">
-        <v>-0.02712504900584906</v>
+        <v>0.02043958532194225</v>
       </c>
       <c r="F103">
-        <v>-0.009333900536052131</v>
+        <v>-0.02327307779526009</v>
       </c>
       <c r="G103">
-        <v>0.0210004956379137</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0168944748322735</v>
+      </c>
+      <c r="H103">
+        <v>-0.01201222864447509</v>
+      </c>
+      <c r="I103">
+        <v>0.02469650920782313</v>
+      </c>
+      <c r="J103">
+        <v>0.01543724838843907</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
